--- a/biology/Médecine/Veronika_Petrovici/Veronika_Petrovici.xlsx
+++ b/biology/Médecine/Veronika_Petrovici/Veronika_Petrovici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Veronika Petrovici, née le 23 juillet 1934 et morte le 2 avril 2023[1], est une chirurgienne allemande d'origine roumaine, professeur de Chirurgie Plastique et Reconstructive à l'Université de Cologne (Allemagne), spécialiste dans le traitement des angiomes et des malformations vasculaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veronika Petrovici, née le 23 juillet 1934 et morte le 2 avril 2023, est une chirurgienne allemande d'origine roumaine, professeur de Chirurgie Plastique et Reconstructive à l'Université de Cologne (Allemagne), spécialiste dans le traitement des angiomes et des malformations vasculaires.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronika Petrovici fréquente le lycée scientifique à Slatina et obtient en 1952 le baccalauréat. Après avoir fini ses études de médecine à l'Université de Bucarest (Roumanie), on lui décerne en 1959 le titre de Docteur ès médecine avec une thèse sur l''Épilepsie dans les maladies cérébro-vasculaires. Elle s'est spécialisée en chirurgie plastique et reconstructive pendant les années 1960-1965. 
 En 1969 elle se transfère en Allemagne et commence son activité dans la Clinique de Chirurgie Plastique de l'Université de Cologne, sous la direction de Josef Schrudde (de). En 1982 elle reçoit la venia vegendi avec une dissertation sur la Classification et la thérapie des angiomes cutanées et en 1988 elle est nommée professeur de Chirurgie Plastique à la faculté de médecine de l'Université de Cologne.
